--- a/Evaluation of HELP/RQ4_efficiency/time.xlsx
+++ b/Evaluation of HELP/RQ4_efficiency/time.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_fourthyear\Update\Rep\Evaluation of HELP\RQ4_efficiency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_fourthyear\Update\Rep_Final\Diagnosis_Install\Evaluation of HELP\RQ4_efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF0A76-717A-411B-A711-A470D422E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22108F3-15D1-46C2-B0B0-46CBE3F268D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_6" sheetId="2" r:id="rId1"/>
-    <sheet name="Table_7" sheetId="1" r:id="rId2"/>
-    <sheet name="Table_8" sheetId="3" r:id="rId3"/>
+    <sheet name="Table_5" sheetId="3" r:id="rId1"/>
+    <sheet name="Table_6" sheetId="2" r:id="rId2"/>
+    <sheet name="Table_7" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1658,6 +1658,1810 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B81529-2B47-473F-92B5-5A3AC6570601}">
+  <dimension ref="A1:F89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.192403793</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.3476601E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.3476601E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.123666525</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.4674149999999998E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.4674149999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.2347047330000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.0070075999999999E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.0070075999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.107956648</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.9342379999999997E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.9342379999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.1364369390000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.27380943299999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.27380943299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.8426189420000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.1321249000000003E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.1321249000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.0435404780000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.0932903000000001E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.0932903000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.809906244</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.27935934099999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.27935934099999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.139882565</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.9447556E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.9447556E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.192524672</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.6817530000000003E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.6817530000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0716648099999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.1249055999999999E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.1249055999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.087985277</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6.7093370000000001E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.7093370000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.1298778060000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.7163229000000005E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.7163229000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.9497992989999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.8559207999999999E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.8559207999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.592091084</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.45245003700000003</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.45245003700000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.95393276199999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.79052400599999995</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.79052400599999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.1244058610000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.0592400000000004E-4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5.0592400000000004E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6.8291475769999996</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6.5727229999999999E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6.5727229999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.6043524740000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.3650400000000001E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.3650400000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.0125794410000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.4374259999999999E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.4374259999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.0004448889999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.6150679999999999E-3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.6150679999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.2207033629999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.8896299999999999E-4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.8896299999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.91276288000000005</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.5768508999999997E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.5768508999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>13.4859581</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.8035164000000001E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.8035164000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.168202162</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.2673600000000001E-4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.2673600000000001E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.8766918180000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.0731697E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.0731697E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.0666766170000002</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.5608282E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.5608282E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.6561493870000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.0492325E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.0492325E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.6536388400000002</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.556633E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.556633E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15.86990261</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.118187904</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.118187904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <v>37.283009049999997</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.8083334E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.8083334E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.9251608849999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7.111549E-3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>7.111549E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.1124308110000001</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.5820699999999999E-4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.5820699999999999E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.1279549600000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8.4548000000000002E-3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8.4548000000000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.9392035009999999</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.4525414E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.4525414E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.444887161</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4.7754049E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4.7754049E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.2089908119999999</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7.139683E-3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7.139683E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.289378881</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.7476080000000001E-3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.7476080000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.0892434120000001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.9765368E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2.9765368E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.87358188599999997</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8.6296076769999992</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8.6296076769999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.36388731</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6.7114799999999999E-4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6.7114799999999999E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2">
+        <v>27.5971148</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.7243376E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2.7243376E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3.4680626389999998</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8.7673660000000004E-3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8.7673660000000004E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>370</v>
+      </c>
+      <c r="B45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.96384191500000005</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.0027200000000001E-4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2.0027200000000001E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.799068213</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3.6501900000000001E-4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3.6501900000000001E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>372</v>
+      </c>
+      <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3.0387618540000001</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.2634754E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.2634754E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6.9556350709999997</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2.9405355000000001E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2.9405355000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.9511952400000001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.1392117E-2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.1392117E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" t="s">
+        <v>379</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4.244386435</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4.5545100000000003E-3</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4.5545100000000003E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2.0364220139999998</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.9640920000000002E-3</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.9640920000000002E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B52" t="s">
+        <v>382</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.4346332550000001</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.853632E-3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.853632E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>22.405299190000001</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5.126238E-3</v>
+      </c>
+      <c r="F53" s="2">
+        <v>5.126238E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" t="s">
+        <v>386</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.372611284</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2.3624900000000001E-3</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2.3624900000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" t="s">
+        <v>388</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.162582397</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.5129299999999998E-4</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2.5129299999999998E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.528053761</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2.8395699999999999E-4</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2.8395699999999999E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2">
+        <v>32.529968019999998</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.32590436900000003</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.32590436900000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>359</v>
+      </c>
+      <c r="B58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.2704153060000001</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.6901489999999999E-3</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1.6901489999999999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>389</v>
+      </c>
+      <c r="B59" t="s">
+        <v>312</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.036239624</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.0623199999999999E-4</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2.0623199999999999E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" t="s">
+        <v>391</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.396558762</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1.3035536E-2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1.3035536E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.761842728</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5.5651659999999999E-3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>5.5651659999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.7012374400000001</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.8417109999999998E-3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2.8417109999999998E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.0137453080000001</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.116763592</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.116763592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4.9004592899999997</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5.8845281999999999E-2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5.8845281999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.1216037270000001</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6.2079429999999996E-3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>6.2079429999999996E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>399</v>
+      </c>
+      <c r="B66" t="s">
+        <v>400</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.845286846</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.3531207999999999E-2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1.3531207999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.9457156659999999</v>
+      </c>
+      <c r="E67" s="2">
+        <v>5.0091700000000003E-4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>5.0091700000000003E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.4890851970000001</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.6869799999999999E-4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2.6869799999999999E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" t="s">
+        <v>402</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.005235195</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.3963449999999998E-3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2.3963449999999998E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.8441228869999999</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8.397102E-3</v>
+      </c>
+      <c r="F70" s="2">
+        <v>8.397102E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" t="s">
+        <v>406</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.9724307059999999</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5.9936522999999998E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>5.9936522999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>407</v>
+      </c>
+      <c r="B72" t="s">
+        <v>408</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5.5934140680000004</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.0033369E-2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1.0033369E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3.2040708069999999</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2.2152424E-2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2.2152424E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4.8737766740000001</v>
+      </c>
+      <c r="E74" s="2">
+        <v>7.2411775999999997E-2</v>
+      </c>
+      <c r="F74" s="2">
+        <v>7.2411775999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" t="s">
+        <v>412</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4.0047476289999997</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.5337219000000001E-2</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2.5337219000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.0108768939999999</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3.9472580000000004E-3</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3.9472580000000004E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B77" t="s">
+        <v>416</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.2796986100000001</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.9815683000000001E-2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1.9815683000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>399</v>
+      </c>
+      <c r="B78" t="s">
+        <v>400</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7.2460224630000001</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6.6918135000000004E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>6.6918135000000004E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B79" t="s">
+        <v>418</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.1213762759999999</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.6803740000000001E-3</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1.6803740000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1.019453049</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.77622E-4</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1.77622E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1.322113514</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2.9730799999999998E-4</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2.9730799999999998E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.1682665350000001</v>
+      </c>
+      <c r="E82" s="2">
+        <v>5.3040980000000001E-3</v>
+      </c>
+      <c r="F82" s="2">
+        <v>5.3040980000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="2">
+        <v>6.3271605969999998</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3.1375899999999999E-4</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3.1375899999999999E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>403</v>
+      </c>
+      <c r="B84" t="s">
+        <v>404</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.4504480360000001</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.9132137E-2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1.9132137E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>419</v>
+      </c>
+      <c r="B85" t="s">
+        <v>420</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2.3362464900000002</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2.2044659000000001E-2</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2.2044659000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>421</v>
+      </c>
+      <c r="B86" t="s">
+        <v>422</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>15.6180079</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2.7939558E-2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2.7939558E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>423</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2.6382343769999999</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2.4744511E-2</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2.4744511E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>424</v>
+      </c>
+      <c r="B88" t="s">
+        <v>425</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.7691879269999999</v>
+      </c>
+      <c r="E88" s="2">
+        <v>4.1122440000000001E-3</v>
+      </c>
+      <c r="F88" s="2">
+        <v>4.1122440000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>426</v>
+      </c>
+      <c r="B89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2.7878894810000001</v>
+      </c>
+      <c r="E89" s="2">
+        <v>8.5749629999999997E-3</v>
+      </c>
+      <c r="F89" s="2">
+        <v>8.5749629999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9024C86-4A8F-437C-BE12-43CFC48FD1CB}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1967,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
@@ -6308,1808 +8112,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B81529-2B47-473F-92B5-5A3AC6570601}">
-  <dimension ref="A1:F89"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.192403793</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.3476601E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.3476601E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.123666525</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5.4674149999999998E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.4674149999999998E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.2347047330000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.0070075999999999E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.0070075999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.107956648</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.9342379999999997E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.9342379999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.1364369390000002</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.27380943299999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.27380943299999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.8426189420000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.1321249000000003E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7.1321249000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.0435404780000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.0932903000000001E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.0932903000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.809906244</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.27935934099999998</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.27935934099999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.139882565</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.9447556E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.9447556E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.192524672</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5.6817530000000003E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5.6817530000000003E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0716648099999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.1249055999999999E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.1249055999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.087985277</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6.7093370000000001E-3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.7093370000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.1298778060000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6.7163229000000005E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6.7163229000000005E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.9497992989999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.8559207999999999E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.8559207999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.592091084</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.45245003700000003</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.45245003700000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.95393276199999999</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.79052400599999995</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.79052400599999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.1244058610000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5.0592400000000004E-4</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5.0592400000000004E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>328</v>
-      </c>
-      <c r="B19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>6.8291475769999996</v>
-      </c>
-      <c r="E19" s="2">
-        <v>6.5727229999999999E-3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>6.5727229999999999E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2.6043524740000001</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3.3650400000000001E-3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3.3650400000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>332</v>
-      </c>
-      <c r="B21" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2.0125794410000002</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.4374259999999999E-3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.4374259999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>334</v>
-      </c>
-      <c r="B22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.0004448889999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.6150679999999999E-3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4.6150679999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>335</v>
-      </c>
-      <c r="B23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.2207033629999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.8896299999999999E-4</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2.8896299999999999E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>337</v>
-      </c>
-      <c r="B24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.91276288000000005</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3.5768508999999997E-2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3.5768508999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>339</v>
-      </c>
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>13.4859581</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.8035164000000001E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2.8035164000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>340</v>
-      </c>
-      <c r="B26" t="s">
-        <v>341</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.168202162</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.2673600000000001E-4</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2.2673600000000001E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>342</v>
-      </c>
-      <c r="B27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.8766918180000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.0731697E-2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.0731697E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2.0666766170000002</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4.5608282E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>4.5608282E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>344</v>
-      </c>
-      <c r="B29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2.6561493870000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1.0492325E-2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.0492325E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B30" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3.6536388400000002</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3.556633E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3.556633E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>347</v>
-      </c>
-      <c r="B31" t="s">
-        <v>348</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>15.86990261</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.118187904</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.118187904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B32" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="2">
-        <v>37.283009049999997</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.8083334E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1.8083334E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>351</v>
-      </c>
-      <c r="B33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.9251608849999999</v>
-      </c>
-      <c r="E33" s="2">
-        <v>7.111549E-3</v>
-      </c>
-      <c r="F33" s="2">
-        <v>7.111549E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B34" t="s">
-        <v>341</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.1124308110000001</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2.5820699999999999E-4</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2.5820699999999999E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1.1279549600000001</v>
-      </c>
-      <c r="E35" s="2">
-        <v>8.4548000000000002E-3</v>
-      </c>
-      <c r="F35" s="2">
-        <v>8.4548000000000002E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>353</v>
-      </c>
-      <c r="B36" t="s">
-        <v>354</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1.9392035009999999</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1.4525414E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.4525414E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>355</v>
-      </c>
-      <c r="B37" t="s">
-        <v>356</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1.444887161</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4.7754049E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>4.7754049E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>357</v>
-      </c>
-      <c r="B38" t="s">
-        <v>358</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.2089908119999999</v>
-      </c>
-      <c r="E38" s="2">
-        <v>7.139683E-3</v>
-      </c>
-      <c r="F38" s="2">
-        <v>7.139683E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>359</v>
-      </c>
-      <c r="B39" t="s">
-        <v>360</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.289378881</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.7476080000000001E-3</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.7476080000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>361</v>
-      </c>
-      <c r="B40" t="s">
-        <v>362</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2.0892434120000001</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2.9765368E-2</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2.9765368E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>363</v>
-      </c>
-      <c r="B41" t="s">
-        <v>364</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.87358188599999997</v>
-      </c>
-      <c r="E41" s="2">
-        <v>8.6296076769999992</v>
-      </c>
-      <c r="F41" s="2">
-        <v>8.6296076769999992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1.36388731</v>
-      </c>
-      <c r="E42" s="2">
-        <v>6.7114799999999999E-4</v>
-      </c>
-      <c r="F42" s="2">
-        <v>6.7114799999999999E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B43" t="s">
-        <v>368</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2">
-        <v>27.5971148</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2.7243376E-2</v>
-      </c>
-      <c r="F43" s="2">
-        <v>2.7243376E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>369</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="2">
-        <v>3.4680626389999998</v>
-      </c>
-      <c r="E44" s="2">
-        <v>8.7673660000000004E-3</v>
-      </c>
-      <c r="F44" s="2">
-        <v>8.7673660000000004E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>370</v>
-      </c>
-      <c r="B45" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.96384191500000005</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2.0027200000000001E-4</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2.0027200000000001E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>340</v>
-      </c>
-      <c r="B46" t="s">
-        <v>341</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1.799068213</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3.6501900000000001E-4</v>
-      </c>
-      <c r="F46" s="2">
-        <v>3.6501900000000001E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>372</v>
-      </c>
-      <c r="B47" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="2">
-        <v>3.0387618540000001</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1.2634754E-2</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1.2634754E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>374</v>
-      </c>
-      <c r="B48" t="s">
-        <v>375</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="2">
-        <v>6.9556350709999997</v>
-      </c>
-      <c r="E48" s="2">
-        <v>2.9405355000000001E-2</v>
-      </c>
-      <c r="F48" s="2">
-        <v>2.9405355000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>376</v>
-      </c>
-      <c r="B49" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1.9511952400000001</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1.1392117E-2</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1.1392117E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>378</v>
-      </c>
-      <c r="B50" t="s">
-        <v>379</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4.244386435</v>
-      </c>
-      <c r="E50" s="2">
-        <v>4.5545100000000003E-3</v>
-      </c>
-      <c r="F50" s="2">
-        <v>4.5545100000000003E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>380</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2.0364220139999998</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1.9640920000000002E-3</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1.9640920000000002E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>381</v>
-      </c>
-      <c r="B52" t="s">
-        <v>382</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.4346332550000001</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2.853632E-3</v>
-      </c>
-      <c r="F52" s="2">
-        <v>2.853632E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>383</v>
-      </c>
-      <c r="B53" t="s">
-        <v>384</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2">
-        <v>22.405299190000001</v>
-      </c>
-      <c r="E53" s="2">
-        <v>5.126238E-3</v>
-      </c>
-      <c r="F53" s="2">
-        <v>5.126238E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>385</v>
-      </c>
-      <c r="B54" t="s">
-        <v>386</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1.372611284</v>
-      </c>
-      <c r="E54" s="2">
-        <v>2.3624900000000001E-3</v>
-      </c>
-      <c r="F54" s="2">
-        <v>2.3624900000000001E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>387</v>
-      </c>
-      <c r="B55" t="s">
-        <v>388</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1.162582397</v>
-      </c>
-      <c r="E55" s="2">
-        <v>2.5129299999999998E-4</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2.5129299999999998E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>387</v>
-      </c>
-      <c r="B56" t="s">
-        <v>388</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.528053761</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2.8395699999999999E-4</v>
-      </c>
-      <c r="F56" s="2">
-        <v>2.8395699999999999E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="2">
-        <v>32.529968019999998</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0.32590436900000003</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.32590436900000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>359</v>
-      </c>
-      <c r="B58" t="s">
-        <v>360</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1.2704153060000001</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1.6901489999999999E-3</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1.6901489999999999E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>389</v>
-      </c>
-      <c r="B59" t="s">
-        <v>312</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1.036239624</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2.0623199999999999E-4</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2.0623199999999999E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>390</v>
-      </c>
-      <c r="B60" t="s">
-        <v>391</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1.396558762</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1.3035536E-2</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1.3035536E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>392</v>
-      </c>
-      <c r="B61" t="s">
-        <v>393</v>
-      </c>
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1.761842728</v>
-      </c>
-      <c r="E61" s="2">
-        <v>5.5651659999999999E-3</v>
-      </c>
-      <c r="F61" s="2">
-        <v>5.5651659999999999E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>394</v>
-      </c>
-      <c r="B62" t="s">
-        <v>395</v>
-      </c>
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1.7012374400000001</v>
-      </c>
-      <c r="E62" s="2">
-        <v>2.8417109999999998E-3</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2.8417109999999998E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>396</v>
-      </c>
-      <c r="B63" t="s">
-        <v>397</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1.0137453080000001</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.116763592</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0.116763592</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="2">
-        <v>4.9004592899999997</v>
-      </c>
-      <c r="E64" s="2">
-        <v>5.8845281999999999E-2</v>
-      </c>
-      <c r="F64" s="2">
-        <v>5.8845281999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>398</v>
-      </c>
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1.1216037270000001</v>
-      </c>
-      <c r="E65" s="2">
-        <v>6.2079429999999996E-3</v>
-      </c>
-      <c r="F65" s="2">
-        <v>6.2079429999999996E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>399</v>
-      </c>
-      <c r="B66" t="s">
-        <v>400</v>
-      </c>
-      <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1.845286846</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1.3531207999999999E-2</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1.3531207999999999E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1.9457156659999999</v>
-      </c>
-      <c r="E67" s="2">
-        <v>5.0091700000000003E-4</v>
-      </c>
-      <c r="F67" s="2">
-        <v>5.0091700000000003E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>326</v>
-      </c>
-      <c r="B68" t="s">
-        <v>327</v>
-      </c>
-      <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1.4890851970000001</v>
-      </c>
-      <c r="E68" s="2">
-        <v>2.6869799999999999E-4</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2.6869799999999999E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>401</v>
-      </c>
-      <c r="B69" t="s">
-        <v>402</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2.005235195</v>
-      </c>
-      <c r="E69" s="2">
-        <v>2.3963449999999998E-3</v>
-      </c>
-      <c r="F69" s="2">
-        <v>2.3963449999999998E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>403</v>
-      </c>
-      <c r="B70" t="s">
-        <v>404</v>
-      </c>
-      <c r="C70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1.8441228869999999</v>
-      </c>
-      <c r="E70" s="2">
-        <v>8.397102E-3</v>
-      </c>
-      <c r="F70" s="2">
-        <v>8.397102E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>405</v>
-      </c>
-      <c r="B71" t="s">
-        <v>406</v>
-      </c>
-      <c r="C71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.9724307059999999</v>
-      </c>
-      <c r="E71" s="2">
-        <v>5.9936522999999998E-2</v>
-      </c>
-      <c r="F71" s="2">
-        <v>5.9936522999999998E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>407</v>
-      </c>
-      <c r="B72" t="s">
-        <v>408</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="2">
-        <v>5.5934140680000004</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1.0033369E-2</v>
-      </c>
-      <c r="F72" s="2">
-        <v>1.0033369E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="2">
-        <v>3.2040708069999999</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2.2152424E-2</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2.2152424E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74" t="s">
-        <v>410</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2">
-        <v>4.8737766740000001</v>
-      </c>
-      <c r="E74" s="2">
-        <v>7.2411775999999997E-2</v>
-      </c>
-      <c r="F74" s="2">
-        <v>7.2411775999999997E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>411</v>
-      </c>
-      <c r="B75" t="s">
-        <v>412</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="2">
-        <v>4.0047476289999997</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2.5337219000000001E-2</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2.5337219000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>413</v>
-      </c>
-      <c r="B76" t="s">
-        <v>414</v>
-      </c>
-      <c r="C76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1.0108768939999999</v>
-      </c>
-      <c r="E76" s="2">
-        <v>3.9472580000000004E-3</v>
-      </c>
-      <c r="F76" s="2">
-        <v>3.9472580000000004E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>415</v>
-      </c>
-      <c r="B77" t="s">
-        <v>416</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1.2796986100000001</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1.9815683000000001E-2</v>
-      </c>
-      <c r="F77" s="2">
-        <v>1.9815683000000001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>399</v>
-      </c>
-      <c r="B78" t="s">
-        <v>400</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="2">
-        <v>7.2460224630000001</v>
-      </c>
-      <c r="E78" s="2">
-        <v>6.6918135000000004E-2</v>
-      </c>
-      <c r="F78" s="2">
-        <v>6.6918135000000004E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>417</v>
-      </c>
-      <c r="B79" t="s">
-        <v>418</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="2">
-        <v>1.1213762759999999</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1.6803740000000001E-3</v>
-      </c>
-      <c r="F79" s="2">
-        <v>1.6803740000000001E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>335</v>
-      </c>
-      <c r="B80" t="s">
-        <v>336</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="2">
-        <v>1.019453049</v>
-      </c>
-      <c r="E80" s="2">
-        <v>1.77622E-4</v>
-      </c>
-      <c r="F80" s="2">
-        <v>1.77622E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>326</v>
-      </c>
-      <c r="B81" t="s">
-        <v>327</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1.322113514</v>
-      </c>
-      <c r="E81" s="2">
-        <v>2.9730799999999998E-4</v>
-      </c>
-      <c r="F81" s="2">
-        <v>2.9730799999999998E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1.1682665350000001</v>
-      </c>
-      <c r="E82" s="2">
-        <v>5.3040980000000001E-3</v>
-      </c>
-      <c r="F82" s="2">
-        <v>5.3040980000000001E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>326</v>
-      </c>
-      <c r="B83" t="s">
-        <v>327</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="2">
-        <v>6.3271605969999998</v>
-      </c>
-      <c r="E83" s="2">
-        <v>3.1375899999999999E-4</v>
-      </c>
-      <c r="F83" s="2">
-        <v>3.1375899999999999E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>403</v>
-      </c>
-      <c r="B84" t="s">
-        <v>404</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1.4504480360000001</v>
-      </c>
-      <c r="E84" s="2">
-        <v>1.9132137E-2</v>
-      </c>
-      <c r="F84" s="2">
-        <v>1.9132137E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>419</v>
-      </c>
-      <c r="B85" t="s">
-        <v>420</v>
-      </c>
-      <c r="C85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2.3362464900000002</v>
-      </c>
-      <c r="E85" s="2">
-        <v>2.2044659000000001E-2</v>
-      </c>
-      <c r="F85" s="2">
-        <v>2.2044659000000001E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>421</v>
-      </c>
-      <c r="B86" t="s">
-        <v>422</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="2">
-        <v>15.6180079</v>
-      </c>
-      <c r="E86" s="2">
-        <v>2.7939558E-2</v>
-      </c>
-      <c r="F86" s="2">
-        <v>2.7939558E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>423</v>
-      </c>
-      <c r="B87" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="2">
-        <v>2.6382343769999999</v>
-      </c>
-      <c r="E87" s="2">
-        <v>2.4744511E-2</v>
-      </c>
-      <c r="F87" s="2">
-        <v>2.4744511E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>424</v>
-      </c>
-      <c r="B88" t="s">
-        <v>425</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="2">
-        <v>1.7691879269999999</v>
-      </c>
-      <c r="E88" s="2">
-        <v>4.1122440000000001E-3</v>
-      </c>
-      <c r="F88" s="2">
-        <v>4.1122440000000001E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>426</v>
-      </c>
-      <c r="B89" t="s">
-        <v>427</v>
-      </c>
-      <c r="C89" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="2">
-        <v>2.7878894810000001</v>
-      </c>
-      <c r="E89" s="2">
-        <v>8.5749629999999997E-3</v>
-      </c>
-      <c r="F89" s="2">
-        <v>8.5749629999999997E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Evaluation of HELP/RQ4_efficiency/time.xlsx
+++ b/Evaluation of HELP/RQ4_efficiency/time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_fourthyear\Update\Rep_Final\Diagnosis_Install\Evaluation of HELP\RQ4_efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22108F3-15D1-46C2-B0B0-46CBE3F268D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F46CF0-FE68-4509-932B-539C9AD34EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B81529-2B47-473F-92B5-5A3AC6570601}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Evaluation of HELP/RQ4_efficiency/time.xlsx
+++ b/Evaluation of HELP/RQ4_efficiency/time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_fourthyear\Update\Rep_Final\Diagnosis_Install\Evaluation of HELP\RQ4_efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F46CF0-FE68-4509-932B-539C9AD34EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F56B58-955A-4720-8734-31F3B5AE3B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_5" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="431">
   <si>
     <t>PkgName</t>
   </si>
@@ -1321,6 +1321,10 @@
   </si>
   <si>
     <t>Time(smartPip_install)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time(HELP_total)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1661,15 +1665,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B81529-2B47-473F-92B5-5A3AC6570601}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
@@ -1692,7 +1696,7 @@
         <v>232</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>233</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3458,6 +3462,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3466,7 +3471,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3775,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
